--- a/GNI per capita, Atlas method (current US$).xlsx
+++ b/GNI per capita, Atlas method (current US$).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gealy\OneDrive\Documents\git\inequality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ECD1B5-55B0-4457-9EB6-6F84F64CC6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54AD79E0-AC30-457B-8335-EF0D5138637F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Metadata - Countries" sheetId="2" r:id="rId2"/>
     <sheet name="Metadata - Indicators" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="80000" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -2578,7 +2578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
